--- a/Config/Datas/AssetPath.xlsx
+++ b/Config/Datas/AssetPath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20930" windowHeight="8100"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,13 +70,13 @@
     <t>作为高频音效的CD</t>
   </si>
   <si>
-    <t>A16</t>
+    <t>主角移动</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/GameRes/Audios/Sounds/主角移动.wav</t>
   </si>
   <si>
-    <t>A17</t>
+    <t>主角受击</t>
   </si>
   <si>
     <t>Assets/AddressableAssets/GameRes/Audios/Sounds/主角受击.wav</t>
@@ -1014,7 +1014,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/Config/Datas/AssetPath.xlsx
+++ b/Config/Datas/AssetPath.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -73,13 +73,88 @@
     <t>主角移动</t>
   </si>
   <si>
-    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/主角移动.wav</t>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/行走.wav</t>
   </si>
   <si>
     <t>主角受击</t>
   </si>
   <si>
-    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/主角受击.wav</t>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/受击.wav</t>
+  </si>
+  <si>
+    <t>主角休息</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/休息.wav</t>
+  </si>
+  <si>
+    <t>使用物品</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/使用物品.wav</t>
+  </si>
+  <si>
+    <t>关闭Esc界面</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/关闭Esc界面.wav</t>
+  </si>
+  <si>
+    <t>切换Esc界面栏</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/切换Esc界面栏.wav</t>
+  </si>
+  <si>
+    <t>切换物品位置</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/切换物品位置.wav</t>
+  </si>
+  <si>
+    <t>存档成功</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/存档成功.wav</t>
+  </si>
+  <si>
+    <t>开门</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/开门.wav</t>
+  </si>
+  <si>
+    <t>打开Esc界面</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/打开Esc界面.wav</t>
+  </si>
+  <si>
+    <t>普通点击</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/普通点击.wav</t>
+  </si>
+  <si>
+    <t>火堆界面</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/火堆界面.wav</t>
+  </si>
+  <si>
+    <t>行走</t>
+  </si>
+  <si>
+    <t>跳跃</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/跳跃.wav</t>
+  </si>
+  <si>
+    <t>采摘</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Sounds/采摘.wav</t>
   </si>
 </sst>
 </file>
@@ -1011,13 +1086,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="5" max="5" width="94.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1093,6 +1171,188 @@
       </c>
       <c r="E5" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1371,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1128,7 +1388,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Config/Datas/AssetPath.xlsx
+++ b/Config/Datas/AssetPath.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>##var</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Assets/AddressableAssets/GameRes/Audios/Sounds/采摘.wav</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>Assets/AddressableAssets/GameRes/Audios/Bgms/config2.mp3</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1092,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1353,6 +1359,20 @@
       </c>
       <c r="E18" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
